--- a/working pixel dimensions.xlsx
+++ b/working pixel dimensions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yannick\Desktop\redeem-team-fydp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arthur\Documents\GitHub\FYDP\redeem-team-fydp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -350,10 +350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection sqref="A1:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,7 +386,7 @@
         <v>1440</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C10" si="0">A3*B3</f>
+        <f t="shared" ref="C3:C11" si="0">A3*B3</f>
         <v>2592000</v>
       </c>
     </row>
@@ -481,7 +481,20 @@
         <v>2592000</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2304</v>
+      </c>
+      <c r="B11">
+        <v>1536</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>3538944</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/working pixel dimensions.xlsx
+++ b/working pixel dimensions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arthur\Documents\GitHub\FYDP\redeem-team-fydp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yannick\Desktop\redeem-team-fydp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -350,15 +350,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B11"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -366,134 +366,193 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1792</v>
+        <v>1920</v>
       </c>
       <c r="B2">
-        <v>1344</v>
+        <v>1080</v>
       </c>
       <c r="C2">
         <f>A2*B2</f>
+        <v>2073600</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D10" si="0">A2/B2</f>
+        <v>1.7777777777777777</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2048</v>
+      </c>
+      <c r="B3">
+        <v>1152</v>
+      </c>
+      <c r="C3">
+        <f>A3*B3</f>
+        <v>2359296</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>1.7777777777777777</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <f>MAX(C2:C12)</f>
+        <v>15023376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1792</v>
+      </c>
+      <c r="B4">
+        <v>1344</v>
+      </c>
+      <c r="C4">
+        <f>A4*B4</f>
         <v>2408448</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1856</v>
+      </c>
+      <c r="B5">
+        <v>1392</v>
+      </c>
+      <c r="C5">
+        <f>A5*B5</f>
+        <v>2583552</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>1800</v>
       </c>
-      <c r="B3">
+      <c r="B6">
         <v>1440</v>
       </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C11" si="0">A3*B3</f>
+      <c r="C6">
+        <f>A6*B6</f>
         <v>2592000</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1856</v>
-      </c>
-      <c r="B4">
-        <v>1392</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>2583552</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <f>MAX(C2:C10)</f>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2880</v>
+      </c>
+      <c r="B7">
+        <v>900</v>
+      </c>
+      <c r="C7">
+        <f>A7*B7</f>
+        <v>2592000</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1920</v>
+      </c>
+      <c r="B8">
+        <v>1400</v>
+      </c>
+      <c r="C8">
+        <f>A8*B8</f>
+        <v>2688000</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1.3714285714285714</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1920</v>
+      </c>
+      <c r="B9">
+        <v>1440</v>
+      </c>
+      <c r="C9">
+        <f>A9*B9</f>
+        <v>2764800</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2304</v>
+      </c>
+      <c r="B10">
+        <v>1536</v>
+      </c>
+      <c r="C10">
+        <f>A10*B10</f>
+        <v>3538944</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2560</v>
+      </c>
+      <c r="B11">
+        <v>1600</v>
+      </c>
+      <c r="C11">
+        <f>A11*B11</f>
         <v>4096000</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1920</v>
-      </c>
-      <c r="B5">
-        <v>1080</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>2073600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1920</v>
-      </c>
-      <c r="B6">
-        <v>1400</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>2688000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1920</v>
-      </c>
-      <c r="B7">
-        <v>1440</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>2764800</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2048</v>
-      </c>
-      <c r="B8">
-        <v>1152</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>2359296</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2560</v>
-      </c>
-      <c r="B9">
-        <v>1600</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>4096000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2880</v>
-      </c>
-      <c r="B10">
-        <v>900</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>2592000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2304</v>
-      </c>
-      <c r="B11">
-        <v>1536</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>3538944</v>
+      <c r="D11">
+        <f>A11/B11</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5168</v>
+      </c>
+      <c r="B12">
+        <v>2907</v>
+      </c>
+      <c r="C12">
+        <f>A12*B12</f>
+        <v>15023376</v>
+      </c>
+      <c r="D12">
+        <f>A12/B12</f>
+        <v>1.7777777777777777</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C12">
+    <sortCondition ref="C2:C12"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
